--- a/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="85">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -243,27 +243,12 @@
     <t>9840019062</t>
   </si>
   <si>
-    <t>9840053624</t>
-  </si>
-  <si>
-    <t>9840077670</t>
-  </si>
-  <si>
-    <t>9840032356</t>
-  </si>
-  <si>
     <t>WebformId</t>
   </si>
   <si>
-    <t>9840025829</t>
-  </si>
-  <si>
     <t>9840014457</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
   </si>
   <si>
     <t>9840013206</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>2024-06-29 12:44:24</t>
@@ -298,7 +280,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,88 +621,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="41" customWidth="true" width="15.26953125"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" customWidth="1"/>
+    <col min="42" max="42" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -730,91 +711,91 @@
       <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AO1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -828,31 +809,31 @@
       <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>79</v>
+      <c r="F2" t="s">
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -861,43 +842,43 @@
       <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="P2" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="S2" t="s">
         <v>63</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>64</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s" s="0">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" t="s" s="0">
+      <c r="Y2" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -927,26 +908,26 @@
       <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" t="s" s="0">
+      <c r="AL2" t="s">
         <v>69</v>
       </c>
-      <c r="AM2" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="AN2" s="0">
+      <c r="AM2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AO2" s="0">
+      <c r="AO2">
         <v>136</v>
       </c>
-      <c r="AP2" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="AQ2" t="s" s="0">
-        <v>82</v>
+      <c r="AP2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
@@ -959,31 +940,31 @@
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -992,8 +973,8 @@
       <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s" s="0">
-        <v>51</v>
+      <c r="O3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
@@ -1006,31 +987,31 @@
       <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>83</v>
+      <c r="F4" t="s">
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1039,14 +1020,14 @@
       <c r="N4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>17</v>
       </c>
-      <c r="AP4" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="AQ4" t="s" s="0">
-        <v>85</v>
+      <c r="AP4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -1059,7 +1040,7 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1068,19 +1049,19 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>61</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1089,8 +1070,8 @@
       <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s" s="0">
-        <v>51</v>
+      <c r="O5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
@@ -1103,31 +1084,31 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1136,8 +1117,8 @@
       <c r="N6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>51</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -1150,31 +1131,31 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>86</v>
+      <c r="F7" t="s">
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>61</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1183,14 +1164,14 @@
       <c r="N7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s" s="0">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="AP7" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="AQ7" t="s" s="0">
-        <v>88</v>
+      <c r="AP7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -1203,31 +1184,31 @@
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>41</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1236,8 +1217,8 @@
       <c r="N8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>51</v>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -1250,31 +1231,31 @@
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>89</v>
+      <c r="F9" t="s">
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>61</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1283,14 +1264,14 @@
       <c r="N9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O9" t="s" s="0">
+      <c r="O9" t="s">
         <v>17</v>
       </c>
-      <c r="AP9" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="AQ9" t="s" s="0">
-        <v>90</v>
+      <c r="AP9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -1303,31 +1284,31 @@
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1336,8 +1317,8 @@
       <c r="N10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O10" t="s" s="0">
-        <v>51</v>
+      <c r="O10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="105">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -274,12 +274,73 @@
   </si>
   <si>
     <t>2024-06-29 12:45:11</t>
+  </si>
+  <si>
+    <t>9840055746</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:13:07</t>
+  </si>
+  <si>
+    <t>9840040320</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:13:30</t>
+  </si>
+  <si>
+    <t>9840097867</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:13:52</t>
+  </si>
+  <si>
+    <t>9840088388</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:14:13</t>
+  </si>
+  <si>
+    <t>9840012902</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:14:36</t>
+  </si>
+  <si>
+    <t>9840082902</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:14:58</t>
+  </si>
+  <si>
+    <t>9840023578</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:15:19</t>
+  </si>
+  <si>
+    <t>9840095899</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:15:41</t>
+  </si>
+  <si>
+    <t>9840028172</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:16:02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,82 +688,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" customWidth="1"/>
-    <col min="42" max="42" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="19" max="19" customWidth="true" width="10.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" customWidth="true" width="10.54296875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="25" max="25" customWidth="true" width="10.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="33" customWidth="true" width="9.6328125"/>
+    <col min="34" max="35" customWidth="true" width="15.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="37" max="37" customWidth="true" width="17.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="41" max="41" customWidth="true" width="15.26953125"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -711,91 +772,91 @@
       <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -809,31 +870,31 @@
       <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>75</v>
+      <c r="F2" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -842,43 +903,43 @@
       <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>51</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -908,26 +969,26 @@
       <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="AM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN2">
+      <c r="AM2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="AN2" s="0">
         <v>0</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="0">
         <v>136</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>77</v>
+      <c r="AQ2" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
@@ -940,31 +1001,31 @@
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>70</v>
+      <c r="F3" t="s" s="0">
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -973,8 +1034,14 @@
       <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP3" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AQ3" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
@@ -987,31 +1054,31 @@
       <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>78</v>
+      <c r="F4" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1020,14 +1087,14 @@
       <c r="N4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>79</v>
+      <c r="AQ4" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -1040,28 +1107,31 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s" s="0">
+        <v>93</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1070,8 +1140,14 @@
       <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AQ5" t="s" s="0">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
@@ -1084,31 +1160,31 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>71</v>
+      <c r="F6" t="s" s="0">
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>44</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1117,8 +1193,14 @@
       <c r="N6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP6" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AQ6" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -1131,31 +1213,31 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>80</v>
+      <c r="F7" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1164,14 +1246,14 @@
       <c r="N7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AP7" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>82</v>
+      <c r="AQ7" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -1184,31 +1266,31 @@
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>72</v>
+      <c r="F8" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1217,8 +1299,14 @@
       <c r="N8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP8" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AQ8" t="s" s="0">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -1231,31 +1319,31 @@
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>83</v>
+      <c r="F9" t="s" s="0">
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1264,14 +1352,14 @@
       <c r="N9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AP9" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>84</v>
+      <c r="AQ9" t="s" s="0">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -1284,31 +1372,31 @@
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>73</v>
+      <c r="F10" t="s" s="0">
+        <v>103</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1317,8 +1405,14 @@
       <c r="N10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AQ10" t="s" s="0">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="123">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -334,6 +334,60 @@
   </si>
   <si>
     <t>2024-07-04 13:16:02</t>
+  </si>
+  <si>
+    <t>9840032043</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:26:35</t>
+  </si>
+  <si>
+    <t>9840044227</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:26:55</t>
+  </si>
+  <si>
+    <t>9840068313</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:27:15</t>
+  </si>
+  <si>
+    <t>9840051858</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:27:36</t>
+  </si>
+  <si>
+    <t>9840036394</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:27:56</t>
+  </si>
+  <si>
+    <t>9840006280</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:28:17</t>
+  </si>
+  <si>
+    <t>9840061359</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:28:37</t>
+  </si>
+  <si>
+    <t>9840021541</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:28:57</t>
+  </si>
+  <si>
+    <t>9840010883</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:29:17</t>
   </si>
 </sst>
 </file>
@@ -877,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -976,7 +1030,7 @@
         <v>69</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -988,7 +1042,7 @@
         <v>76</v>
       </c>
       <c r="AQ2" t="s" s="0">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
@@ -1008,7 +1062,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1041,7 +1095,7 @@
         <v>76</v>
       </c>
       <c r="AQ3" t="s" s="0">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
@@ -1061,7 +1115,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1094,7 +1148,7 @@
         <v>76</v>
       </c>
       <c r="AQ4" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -1114,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1147,7 +1201,7 @@
         <v>76</v>
       </c>
       <c r="AQ5" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
@@ -1167,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1200,7 +1254,7 @@
         <v>76</v>
       </c>
       <c r="AQ6" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -1220,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1253,7 +1307,7 @@
         <v>76</v>
       </c>
       <c r="AQ7" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -1273,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1306,7 +1360,7 @@
         <v>76</v>
       </c>
       <c r="AQ8" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -1326,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1359,7 +1413,7 @@
         <v>76</v>
       </c>
       <c r="AQ9" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -1379,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1412,7 +1466,7 @@
         <v>76</v>
       </c>
       <c r="AQ10" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -388,6 +388,60 @@
   </si>
   <si>
     <t>2024-07-08 12:29:17</t>
+  </si>
+  <si>
+    <t>9840039529</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:46:39</t>
+  </si>
+  <si>
+    <t>9840079201</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:47:09</t>
+  </si>
+  <si>
+    <t>9840053178</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:47:38</t>
+  </si>
+  <si>
+    <t>9840093073</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:48:07</t>
+  </si>
+  <si>
+    <t>9840011926</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:48:36</t>
+  </si>
+  <si>
+    <t>9840023956</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:49:05</t>
+  </si>
+  <si>
+    <t>9840036402</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:49:36</t>
+  </si>
+  <si>
+    <t>9840063986</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:50:05</t>
+  </si>
+  <si>
+    <t>9840060859</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:50:35</t>
   </si>
 </sst>
 </file>
@@ -931,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1030,7 +1084,7 @@
         <v>69</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -1042,7 +1096,7 @@
         <v>76</v>
       </c>
       <c r="AQ2" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
@@ -1062,7 +1116,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1095,7 +1149,7 @@
         <v>76</v>
       </c>
       <c r="AQ3" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
@@ -1115,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1148,7 +1202,7 @@
         <v>76</v>
       </c>
       <c r="AQ4" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -1168,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1201,7 +1255,7 @@
         <v>76</v>
       </c>
       <c r="AQ5" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
@@ -1221,7 +1275,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1254,7 +1308,7 @@
         <v>76</v>
       </c>
       <c r="AQ6" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -1274,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1307,7 +1361,7 @@
         <v>76</v>
       </c>
       <c r="AQ7" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -1327,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1360,7 +1414,7 @@
         <v>76</v>
       </c>
       <c r="AQ8" t="s" s="0">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -1380,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1413,7 +1467,7 @@
         <v>76</v>
       </c>
       <c r="AQ9" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -1433,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1466,7 +1520,7 @@
         <v>76</v>
       </c>
       <c r="AQ10" t="s" s="0">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC006_WF_RRUserN_OneConditionY_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="95">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>WF_RRUserYN_OneConditionYN_Test</t>
-  </si>
-  <si>
     <t>UserName7</t>
   </si>
   <si>
@@ -231,217 +228,82 @@
     <t>WF_RRUserN_OneConditionY</t>
   </si>
   <si>
-    <t>9840022998</t>
-  </si>
-  <si>
-    <t>9840012336</t>
-  </si>
-  <si>
-    <t>9840040485</t>
-  </si>
-  <si>
-    <t>9840019062</t>
-  </si>
-  <si>
     <t>WebformId</t>
   </si>
   <si>
-    <t>9840014457</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>2024-06-29 12:44:00</t>
-  </si>
-  <si>
-    <t>9840013206</t>
-  </si>
-  <si>
-    <t>2024-06-29 12:44:24</t>
-  </si>
-  <si>
-    <t>9840073478</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2024-06-29 12:44:48</t>
-  </si>
-  <si>
-    <t>9840082916</t>
-  </si>
-  <si>
-    <t>2024-06-29 12:45:11</t>
-  </si>
-  <si>
-    <t>9840055746</t>
+    <t>9840079201</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:47:09</t>
+  </si>
+  <si>
+    <t>9840053178</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:47:38</t>
+  </si>
+  <si>
+    <t>9840093073</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:48:07</t>
+  </si>
+  <si>
+    <t>9840011926</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:48:36</t>
+  </si>
+  <si>
+    <t>9840023956</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:49:05</t>
+  </si>
+  <si>
+    <t>9840036402</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:49:36</t>
+  </si>
+  <si>
+    <t>9840060859</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:50:35</t>
+  </si>
+  <si>
+    <t>WF_RRUserN_OneConditionY_Test</t>
+  </si>
+  <si>
+    <t>9840036052</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2024-07-04 13:13:07</t>
-  </si>
-  <si>
-    <t>9840040320</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:13:30</t>
-  </si>
-  <si>
-    <t>9840097867</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:13:52</t>
-  </si>
-  <si>
-    <t>9840088388</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:14:13</t>
-  </si>
-  <si>
-    <t>9840012902</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:14:36</t>
-  </si>
-  <si>
-    <t>9840082902</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:14:58</t>
-  </si>
-  <si>
-    <t>9840023578</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:15:19</t>
-  </si>
-  <si>
-    <t>9840095899</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:15:41</t>
-  </si>
-  <si>
-    <t>9840028172</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:16:02</t>
-  </si>
-  <si>
-    <t>9840032043</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:26:35</t>
-  </si>
-  <si>
-    <t>9840044227</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:26:55</t>
-  </si>
-  <si>
-    <t>9840068313</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:27:15</t>
-  </si>
-  <si>
-    <t>9840051858</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:27:36</t>
-  </si>
-  <si>
-    <t>9840036394</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:27:56</t>
-  </si>
-  <si>
-    <t>9840006280</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:28:17</t>
-  </si>
-  <si>
-    <t>9840061359</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:28:37</t>
-  </si>
-  <si>
-    <t>9840021541</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:28:57</t>
-  </si>
-  <si>
-    <t>9840010883</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:29:17</t>
-  </si>
-  <si>
-    <t>9840039529</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:46:39</t>
-  </si>
-  <si>
-    <t>9840079201</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:47:09</t>
-  </si>
-  <si>
-    <t>9840053178</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:47:38</t>
-  </si>
-  <si>
-    <t>9840093073</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:48:07</t>
-  </si>
-  <si>
-    <t>9840011926</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:48:36</t>
-  </si>
-  <si>
-    <t>9840023956</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:49:05</t>
-  </si>
-  <si>
-    <t>9840036402</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:49:36</t>
-  </si>
-  <si>
-    <t>9840063986</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:50:05</t>
-  </si>
-  <si>
-    <t>9840060859</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:50:35</t>
+    <t>2024-12-30 15:12:18</t>
+  </si>
+  <si>
+    <t>9840016487</t>
+  </si>
+  <si>
+    <t>2024-12-30 15:12:49</t>
+  </si>
+  <si>
+    <t>9840019693</t>
+  </si>
+  <si>
+    <t>2024-12-30 15:18:56</t>
+  </si>
+  <si>
+    <t>9840067955</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:10:26</t>
   </si>
 </sst>
 </file>
@@ -790,54 +652,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="41" customWidth="true" width="15.26953125"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="41" max="41" customWidth="true" width="15.28515625"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -938,7 +800,7 @@
         <v>27</v>
       </c>
       <c r="AH1" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI1" t="s" s="0">
         <v>26</v>
@@ -959,16 +821,16 @@
         <v>53</v>
       </c>
       <c r="AO1" t="s" s="0">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AP1" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AQ1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -976,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>12</v>
@@ -985,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -997,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>13</v>
@@ -1012,46 +874,46 @@
         <v>48</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="Q2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s" s="0">
+      <c r="T2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="T2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="U2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="V2" t="s" s="0">
+      <c r="W2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="W2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="X2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="Y2" t="s" s="0">
+      <c r="Z2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="Z2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="AA2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>17</v>
@@ -1060,7 +922,7 @@
         <v>51</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>17</v>
@@ -1069,7 +931,7 @@
         <v>51</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>17</v>
@@ -1081,10 +943,10 @@
         <v>29</v>
       </c>
       <c r="AL2" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -1093,13 +955,13 @@
         <v>136</v>
       </c>
       <c r="AP2" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AQ2" t="s" s="0">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>12</v>
@@ -1116,7 +978,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1128,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>13</v>
@@ -1143,16 +1005,16 @@
         <v>54</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP3" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AQ3" t="s" s="0">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>12</v>
@@ -1169,7 +1031,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1181,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>13</v>
@@ -1196,16 +1058,16 @@
         <v>55</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AQ4" t="s" s="0">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1213,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>12</v>
@@ -1222,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1234,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s" s="0">
         <v>13</v>
@@ -1249,16 +1111,16 @@
         <v>56</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AQ5" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AQ5" t="s" s="0">
-        <v>130</v>
-      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1128,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>12</v>
@@ -1275,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1287,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s" s="0">
         <v>13</v>
@@ -1302,16 +1164,16 @@
         <v>57</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP6" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AQ6" t="s" s="0">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1319,7 +1181,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>12</v>
@@ -1328,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1340,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s" s="0">
         <v>13</v>
@@ -1355,16 +1217,16 @@
         <v>48</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP7" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AQ7" t="s" s="0">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1372,7 +1234,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>12</v>
@@ -1381,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1393,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>13</v>
@@ -1408,16 +1270,16 @@
         <v>54</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP8" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AQ8" t="s" s="0">
-        <v>136</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1287,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>12</v>
@@ -1434,7 +1296,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1446,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s" s="0">
         <v>13</v>
@@ -1464,13 +1326,13 @@
         <v>17</v>
       </c>
       <c r="AP9" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AQ9" t="s" s="0">
-        <v>138</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>12</v>
@@ -1487,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1499,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>13</v>
@@ -1514,13 +1376,13 @@
         <v>56</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP10" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AQ10" t="s" s="0">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
